--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,15 +105,6 @@
     <x:t>Hussein Essam Mahmoud Hussein Gad el mola</x:t>
   </x:si>
   <x:si>
-    <x:t>1210220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد علي فتحي ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled Ali Fathi Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210226</x:t>
   </x:si>
   <x:si>
@@ -204,15 +195,6 @@
     <x:t>Ali Mohamed Abdelghani Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد ماهر قداح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Maher Kaddah</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220139</x:t>
   </x:si>
   <x:si>
@@ -321,15 +303,6 @@
     <x:t>Mohamed Nabil Elsayed Eltoukhy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان أحمد عبدالعزيز إبراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Ahmed Abdelaziz Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210299</x:t>
   </x:si>
   <x:si>
@@ -366,15 +339,6 @@
     <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور احمد مصطفى احمد الحديدى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Noor Ahmed Mostafa Ahmed AlHadidi</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220145</x:t>
   </x:si>
   <x:si>
@@ -382,15 +346,6 @@
   </x:si>
   <x:si>
     <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور نادر محمد الحسينى سيد خليل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Nader Mohamed Elhusseiny Sayed Khalil</x:t>
   </x:si>
   <x:si>
     <x:t>1210420</x:t>
@@ -524,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1171,7 +1126,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4144362268</x:v>
+        <x:v>45906.4145456019</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1203,7 +1158,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45918.5950734954</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1235,7 +1190,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45918.5950734954</x:v>
+        <x:v>45906.4152021991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1267,7 +1222,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4152021991</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1299,7 +1254,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45912.5657633912</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1331,7 +1286,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.5657633912</x:v>
+        <x:v>45912.5600656597</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1363,7 +1318,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.5600656597</x:v>
+        <x:v>45906.4143732986</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1395,7 +1350,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45913.9643949074</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1427,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.9643949074</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1491,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4444652431</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1523,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.5691221065</x:v>
+        <x:v>45913.7802143518</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1555,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4444652431</x:v>
+        <x:v>45906.4442772801</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.7802143518</x:v>
+        <x:v>45913.981759375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4442772801</x:v>
+        <x:v>45909.423516088</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1651,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.981759375</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1683,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.423516088</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1715,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45913.8628979167</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1747,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45912.5641517361</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1779,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.8628979167</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1843,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1875,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45913.7673747685</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45913.7673747685</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2022,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2084,166 +2039,6 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45906.414388044</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45909.4273542477</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45906.4182658912</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45906.4144923958</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45913.7857706829</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على اشرف على حسن السنان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Ashraf Ali Hassan Elsanan</x:t>
   </x:si>
   <x:si>
     <x:t>1210018</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1350,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.9643949074</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1414,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4444652431</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4444652431</x:v>
+        <x:v>45913.7802143518</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.7802143518</x:v>
+        <x:v>45906.4442772801</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4442772801</x:v>
+        <x:v>45913.981759375</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.981759375</x:v>
+        <x:v>45909.423516088</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.423516088</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45913.8628979167</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.8628979167</x:v>
+        <x:v>45912.5641517361</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45913.7673747685</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45913.7673747685</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45913.7857706829</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -319,6 +319,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Ahmed Abdelfatah Elkorashy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>معاذ محمد السيد هاشم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moaz Mohamed Alsayed Hashem</x:t>
   </x:si>
   <x:si>
     <x:t>1210313</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45913.7857706829</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45913.7857706829</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Ahmed Essam Elshahat</x:t>
   </x:si>
   <x:si>
-    <x:t>4220112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انس علاء محمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210002</x:t>
   </x:si>
   <x:si>
@@ -96,15 +87,6 @@
     <x:t>Julia Emad Makin Kamel Georgy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسين عصام محمود حسين جاد المولى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hussein Essam Mahmoud Hussein Gad el mola</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210226</x:t>
   </x:si>
   <x:si>
@@ -186,15 +168,6 @@
     <x:t>Ali Mohamed Abdelghani Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>4220139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد محمد على الشريف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Mohamed Ali Alsherif</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210275</x:t>
   </x:si>
   <x:si>
@@ -249,15 +222,6 @@
     <x:t>Mohamed Ashraf Mohamed Mamdouh Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1230239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ايهاب سعد عبدالقادر خليل ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ehab Saad Abdelkader Khalil Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210073</x:t>
   </x:si>
   <x:si>
@@ -310,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Mariam Mostafa Omar Habeb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى أحمد عبدالفتاح القرشي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Ahmed Abdelfatah Elkorashy</x:t>
   </x:si>
   <x:si>
     <x:t>1210162</x:t>
@@ -479,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -934,7 +889,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4161777778</x:v>
+        <x:v>45906.4155851505</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -966,7 +921,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4155851505</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -998,7 +953,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45913.7855866551</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1030,7 +985,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.7855866551</x:v>
+        <x:v>45909.415290625</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1062,7 +1017,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.415290625</x:v>
+        <x:v>45906.4145456019</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1094,7 +1049,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.6653701042</x:v>
+        <x:v>45918.5950734954</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1126,7 +1081,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45906.4152021991</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1158,7 +1113,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45918.5950734954</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1190,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4152021991</x:v>
+        <x:v>45912.5657633912</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1222,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45912.5600656597</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1254,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.5657633912</x:v>
+        <x:v>45906.4143732986</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1286,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.5600656597</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1318,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45913.7802143518</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4442772801</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4444652431</x:v>
+        <x:v>45913.981759375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7802143518</x:v>
+        <x:v>45909.423516088</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4442772801</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.981759375</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.423516088</x:v>
+        <x:v>45912.5641517361</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.8628979167</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45913.7673747685</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,166 +1835,6 @@
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
     </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45927.06280625</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45906.4144648148</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45909.4273542477</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.4144923958</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45913.7857706829</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2052,9 +1847,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Generative AI for Software Testing (CMPS457 ) Location : [3703]3703-90-الجيزة الرئيسي Time : Tuesday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Moaz Mohamed Alsayed Hashem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهاب ياسر السيد سالم البحراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210313</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45927.9005598032</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45913.7857706829</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45913.7857706829</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نوران شمس الدين محمد علوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nouran Shams Eldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1210330</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45913.7857706829</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Adam Mohamed Abdelmoneim Amin El Masry</x:t>
   </x:si>
   <x:si>
+    <x:t>1210186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد تامر احمد فهيم دخان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Tamer Ahmed Fahim Dokhan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210346</x:t>
   </x:si>
   <x:si>
@@ -87,6 +96,15 @@
     <x:t>Julia Emad Makin Kamel Georgy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان ياسر هاشم محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan yasser hashem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210226</x:t>
   </x:si>
   <x:si>
@@ -114,6 +132,15 @@
     <x:t>SALMA BAHAAELDIN ALI KHALED MOHAMED MAHMOUD</x:t>
   </x:si>
   <x:si>
+    <x:t>1210011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمي محمود محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mahmoud Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210386</x:t>
   </x:si>
   <x:si>
@@ -283,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Moaz Mohamed Alsayed Hashem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك محمد حلمى محمود الكشك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malak Mohamed Helmy Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1210312</x:t>
@@ -434,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -857,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.4150233796</x:v>
+        <x:v>45928.9172696759</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -889,7 +925,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4155851505</x:v>
+        <x:v>45909.4150233796</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -921,7 +957,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45906.4155851505</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -953,7 +989,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.7855866551</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -985,7 +1021,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.415290625</x:v>
+        <x:v>45913.7855866551</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1017,7 +1053,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45909.415290625</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1049,7 +1085,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45918.5950734954</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1117,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4152021991</x:v>
+        <x:v>45906.4145456019</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45918.5950734954</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.5657633912</x:v>
+        <x:v>45906.4152021991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.5600656597</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45912.5657633912</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45912.5600656597</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.7802143518</x:v>
+        <x:v>45906.4143732986</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4442772801</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.981759375</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.423516088</x:v>
+        <x:v>45913.7802143518</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45906.4442772801</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45913.981759375</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45909.423516088</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45912.5641517361</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.9005598032</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45913.7857706829</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1835,6 +1871,134 @@
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
     </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45927.9005598032</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.4144648148</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45909.4273542477</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45913.7857706829</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1847,6 +2011,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Generative AI for Software Testing (CMPS457 ) Location : [3703]3703-90-الجيزة الرئيسي Time : Tuesday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Essam Elshahat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ايه محمد عبد التواب السيد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aya Mohamed Abdeltawab Alsayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210207</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -957,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4155851505</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -989,7 +980,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45913.7855866551</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1021,7 +1012,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.7855866551</x:v>
+        <x:v>45909.415290625</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1053,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.415290625</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1085,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45928.9310135069</x:v>
+        <x:v>45906.4145456019</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1117,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45918.5950734954</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1149,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45918.5950734954</x:v>
+        <x:v>45906.4152021991</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1181,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4152021991</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1213,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45928.9310135069</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45912.5657633912</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.5657633912</x:v>
+        <x:v>45912.5600656597</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.5600656597</x:v>
+        <x:v>45906.4143732986</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45913.7802143518</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7802143518</x:v>
+        <x:v>45906.4442772801</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4442772801</x:v>
+        <x:v>45913.981759375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.981759375</x:v>
+        <x:v>45909.423516088</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.423516088</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45912.5641517361</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45928.9310135069</x:v>
+        <x:v>45927.9005598032</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.9005598032</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45913.7857706829</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -346,6 +346,15 @@
   </x:si>
   <x:si>
     <x:t>Yusuf Ahmed El Sayed Ahmed Salama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ساهر انور عبدالهادي احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOUSSIF SAHER ANWAR ABDELHADY AHMED</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45931.4514591088</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -346,6 +346,15 @@
   </x:si>
   <x:si>
     <x:t>Yusuf Ahmed El Sayed Ahmed Salama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ايهاب احمد البدوي سالم محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ehab Ahmed ElBadawy Salem Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1210337</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45931.4514591088</x:v>
+        <x:v>45936.5834293981</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45931.4514591088</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Lecture-35553.xlsx
+++ b/downloaded_files/CMPS457_Lecture-35553.xlsx
@@ -210,7 +210,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1210388</x:t>
